--- a/variabledescription/meta_variables.xlsx
+++ b/variabledescription/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7522ADE-C285-4184-9070-F0F864597E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B588BA5-F6CD-4E45-9657-759714007A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="485">
   <si>
     <t>lopnr</t>
   </si>
@@ -772,9 +772,6 @@
     <t>BNP</t>
   </si>
   <si>
-    <t>Transferrin</t>
-  </si>
-  <si>
     <t>Ferritin</t>
   </si>
   <si>
@@ -1472,6 +1469,12 @@
   </si>
   <si>
     <t>NT-proBNP at admission/visit</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>Transferrin saturation</t>
   </si>
 </sst>
 </file>
@@ -1843,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,23 +1888,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4" t="s">
         <v>414</v>
-      </c>
-      <c r="E4" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E5" t="s">
         <v>416</v>
-      </c>
-      <c r="E5" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" t="s">
         <v>201</v>
@@ -2106,7 +2109,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2116,6 +2119,9 @@
       <c r="B26" t="s">
         <v>221</v>
       </c>
+      <c r="C26" t="s">
+        <v>483</v>
+      </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
@@ -2172,15 +2178,15 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -2191,10 +2197,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B33" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -2228,15 +2234,15 @@
         <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -2247,10 +2253,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -2270,15 +2276,15 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
@@ -2289,10 +2295,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -2328,7 +2334,7 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,10 +2350,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C45" t="s">
         <v>237</v>
@@ -2358,10 +2364,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C46" t="s">
         <v>237</v>
@@ -2375,21 +2381,21 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
         <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
@@ -2400,10 +2406,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C49" t="s">
         <v>238</v>
@@ -2417,10 +2423,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,7 +2443,7 @@
         <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,10 +2462,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>240</v>
@@ -2470,10 +2476,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>240</v>
@@ -2496,15 +2502,15 @@
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C56" t="s">
         <v>243</v>
@@ -2515,10 +2521,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C57" t="s">
         <v>243</v>
@@ -2539,15 +2545,15 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>245</v>
@@ -2558,10 +2564,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>245</v>
@@ -2575,13 +2581,13 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C61" t="s">
         <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,13 +2595,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C62" t="s">
         <v>246</v>
       </c>
       <c r="E62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2610,15 +2616,15 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>248</v>
@@ -2629,10 +2635,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>248</v>
@@ -2657,7 +2663,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -2671,10 +2677,10 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
+        <v>250</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -2685,13 +2691,13 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
         <v>253</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>254</v>
-      </c>
-      <c r="D69" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2699,10 +2705,10 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" t="s">
         <v>256</v>
-      </c>
-      <c r="D70" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2710,7 +2716,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>204</v>
@@ -2721,7 +2727,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -2732,13 +2738,13 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" t="s">
+        <v>271</v>
+      </c>
+      <c r="E73" t="s">
         <v>288</v>
-      </c>
-      <c r="D73" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2746,16 +2752,16 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" t="s">
         <v>290</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" t="s">
         <v>291</v>
-      </c>
-      <c r="D74" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,13 +2769,13 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2777,7 +2783,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2785,7 +2791,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2793,7 +2799,7 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -2804,7 +2810,7 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,10 +2818,10 @@
         <v>50</v>
       </c>
       <c r="B80" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" t="s">
         <v>261</v>
-      </c>
-      <c r="C80" t="s">
-        <v>262</v>
       </c>
       <c r="D80" t="s">
         <v>225</v>
@@ -2826,7 +2832,7 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D81" t="s">
         <v>225</v>
@@ -2837,7 +2843,7 @@
         <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2845,7 +2851,7 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D83" t="s">
         <v>204</v>
@@ -2856,13 +2862,13 @@
         <v>54</v>
       </c>
       <c r="B84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" t="s">
         <v>266</v>
-      </c>
-      <c r="C84" t="s">
-        <v>262</v>
-      </c>
-      <c r="E84" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,7 +2876,7 @@
         <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,7 +2884,7 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2886,13 +2892,13 @@
         <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2900,10 +2906,10 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -2912,13 +2918,13 @@
         <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -2927,7 +2933,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,7 +2941,7 @@
         <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2943,7 +2949,7 @@
         <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,13 +2957,13 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2965,7 +2971,7 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,10 +2979,10 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>279</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2984,16 +2990,16 @@
         <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3001,7 +3007,7 @@
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3009,7 +3015,7 @@
         <v>68</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3017,10 +3023,10 @@
         <v>69</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" t="s">
         <v>284</v>
-      </c>
-      <c r="E99" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3028,7 +3034,7 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,7 +3042,7 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3044,10 +3050,10 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3055,10 +3061,10 @@
         <v>73</v>
       </c>
       <c r="B103" t="s">
+        <v>396</v>
+      </c>
+      <c r="D103" t="s">
         <v>397</v>
-      </c>
-      <c r="D103" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,13 +3072,13 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D105" t="s">
         <v>204</v>
@@ -3091,7 +3097,7 @@
         <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,7 +3105,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3107,13 +3113,13 @@
         <v>77</v>
       </c>
       <c r="B108" t="s">
+        <v>294</v>
+      </c>
+      <c r="D108" t="s">
         <v>295</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>296</v>
-      </c>
-      <c r="E108" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,13 +3127,13 @@
         <v>78</v>
       </c>
       <c r="B109" t="s">
+        <v>297</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" t="s">
         <v>299</v>
-      </c>
-      <c r="E109" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,13 +3141,13 @@
         <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" t="s">
         <v>301</v>
-      </c>
-      <c r="E110" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,13 +3155,13 @@
         <v>80</v>
       </c>
       <c r="B111" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E111" t="s">
         <v>303</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E111" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,13 +3169,13 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E112" t="s">
         <v>305</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E112" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,10 +3183,10 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3188,10 +3194,10 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3199,13 +3205,13 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
         <v>309</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E115" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3213,13 +3219,13 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
+        <v>310</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E116" t="s">
         <v>311</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E116" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,13 +3233,13 @@
         <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,10 +3247,10 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
+        <v>313</v>
+      </c>
+      <c r="E118" t="s">
         <v>314</v>
-      </c>
-      <c r="E118" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3252,7 +3258,7 @@
         <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3260,7 +3266,7 @@
         <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3268,7 +3274,7 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3276,92 +3282,92 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B124" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D124" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D125" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D128" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B129" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D129" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B130" t="s">
+        <v>443</v>
+      </c>
+      <c r="D130" t="s">
         <v>444</v>
-      </c>
-      <c r="D130" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3369,13 +3375,13 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" t="s">
         <v>319</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>320</v>
-      </c>
-      <c r="E131" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,21 +3389,21 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" t="s">
         <v>319</v>
-      </c>
-      <c r="C132" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" t="s">
         <v>422</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>423</v>
-      </c>
-      <c r="E133" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,11 +3411,11 @@
         <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3417,10 +3423,10 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E135" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3428,11 +3434,11 @@
         <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,10 +3446,10 @@
         <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E137" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3451,10 +3457,10 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3462,7 +3468,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3470,10 +3476,10 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
+        <v>322</v>
+      </c>
+      <c r="E140" t="s">
         <v>323</v>
-      </c>
-      <c r="E140" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,7 +3487,7 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3489,7 +3495,7 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,10 +3503,10 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
+        <v>326</v>
+      </c>
+      <c r="E143" t="s">
         <v>327</v>
-      </c>
-      <c r="E143" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3508,10 +3514,10 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" t="s">
         <v>329</v>
-      </c>
-      <c r="E144" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,10 +3525,10 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
+        <v>330</v>
+      </c>
+      <c r="C145" t="s">
         <v>331</v>
-      </c>
-      <c r="C145" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3530,7 +3536,7 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,21 +3550,21 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3569,7 +3575,7 @@
         <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,10 +3583,10 @@
         <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,10 +3594,10 @@
         <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,10 +3605,10 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E152" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,10 +3616,10 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E153" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3621,10 +3627,10 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E154" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3632,10 +3638,10 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E155" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3643,10 +3649,10 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E156" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3654,10 +3660,10 @@
         <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E157" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,10 +3671,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E158" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3676,10 +3682,10 @@
         <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3687,10 +3693,10 @@
         <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3698,10 +3704,10 @@
         <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3709,10 +3715,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,21 +3726,21 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E163" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>404</v>
+      </c>
+      <c r="B164" t="s">
         <v>405</v>
       </c>
-      <c r="B164" t="s">
-        <v>406</v>
-      </c>
       <c r="E164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3742,10 +3748,10 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,10 +3759,10 @@
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,10 +3770,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3775,21 +3781,21 @@
         <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E168" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>408</v>
+      </c>
+      <c r="B169" t="s">
         <v>409</v>
       </c>
-      <c r="B169" t="s">
-        <v>410</v>
-      </c>
       <c r="E169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3797,10 +3803,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E170" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3808,10 +3814,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E171" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,10 +3825,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3830,10 +3836,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3841,10 +3847,10 @@
         <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E174" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3852,10 +3858,10 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3863,10 +3869,10 @@
         <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,10 +3880,10 @@
         <v>143</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3885,21 +3891,21 @@
         <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B179" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,10 +3913,10 @@
         <v>145</v>
       </c>
       <c r="B180" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,7 +3927,7 @@
         <v>199</v>
       </c>
       <c r="E181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3929,10 +3935,10 @@
         <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3940,10 +3946,10 @@
         <v>148</v>
       </c>
       <c r="B183" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3954,7 +3960,7 @@
         <v>199</v>
       </c>
       <c r="E184" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3962,10 +3968,10 @@
         <v>150</v>
       </c>
       <c r="B185" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E185" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3976,7 +3982,7 @@
         <v>199</v>
       </c>
       <c r="E186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,10 +3990,10 @@
         <v>152</v>
       </c>
       <c r="B187" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -3998,7 +4004,7 @@
         <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4006,10 +4012,10 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E189" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4020,7 +4026,7 @@
         <v>199</v>
       </c>
       <c r="E190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4028,10 +4034,10 @@
         <v>156</v>
       </c>
       <c r="B191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,7 +4048,7 @@
         <v>199</v>
       </c>
       <c r="E192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4050,10 +4056,10 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4064,7 +4070,7 @@
         <v>199</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,10 +4078,10 @@
         <v>160</v>
       </c>
       <c r="B195" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4086,7 +4092,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,7 +4103,7 @@
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4105,10 +4111,10 @@
         <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4119,7 +4125,7 @@
         <v>199</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4127,10 +4133,10 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,29 +4147,29 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B202" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C203" t="s">
         <v>199</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,10 +4177,10 @@
         <v>167</v>
       </c>
       <c r="B204" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4185,7 +4191,7 @@
         <v>199</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,10 +4199,10 @@
         <v>169</v>
       </c>
       <c r="B206" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4207,7 +4213,7 @@
         <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4215,10 +4221,10 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E208" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4229,7 +4235,7 @@
         <v>199</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,10 +4243,10 @@
         <v>173</v>
       </c>
       <c r="B210" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E210" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,7 +4257,7 @@
         <v>199</v>
       </c>
       <c r="E211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,10 +4265,10 @@
         <v>175</v>
       </c>
       <c r="B212" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,7 +4279,7 @@
         <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,10 +4287,10 @@
         <v>177</v>
       </c>
       <c r="B214" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E214" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4295,7 +4301,7 @@
         <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4303,10 +4309,10 @@
         <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E216" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4317,7 +4323,7 @@
         <v>199</v>
       </c>
       <c r="E217" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4325,10 +4331,10 @@
         <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E218" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4339,7 +4345,7 @@
         <v>199</v>
       </c>
       <c r="E219" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4347,10 +4353,10 @@
         <v>183</v>
       </c>
       <c r="B220" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E220" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4358,10 +4364,10 @@
         <v>184</v>
       </c>
       <c r="B221" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E221" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4369,10 +4375,10 @@
         <v>185</v>
       </c>
       <c r="B222" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4380,7 +4386,7 @@
         <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4388,7 +4394,7 @@
         <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4396,7 +4402,7 @@
         <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/variabledescription/meta_variables.xlsx
+++ b/variabledescription/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B588BA5-F6CD-4E45-9657-759714007A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90B7B1-35DA-41BB-BA4F-8CE531E0E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="484">
   <si>
     <t>lopnr</t>
   </si>
@@ -751,9 +751,6 @@
     <t>Sodium</t>
   </si>
   <si>
-    <t>mmol/l</t>
-  </si>
-  <si>
     <t>Creatinine</t>
   </si>
   <si>
@@ -766,18 +763,12 @@
     <t>NT-proBNP</t>
   </si>
   <si>
-    <t>pg/ml</t>
-  </si>
-  <si>
     <t>BNP</t>
   </si>
   <si>
     <t>Ferritin</t>
   </si>
   <si>
-    <t>µg/l</t>
-  </si>
-  <si>
     <t>QRS width</t>
   </si>
   <si>
@@ -1000,9 +991,6 @@
     <t>Marital status</t>
   </si>
   <si>
-    <t>Family type</t>
-  </si>
-  <si>
     <t>Persons cohabitating without common children are recorded as single</t>
   </si>
   <si>
@@ -1475,6 +1463,15 @@
   </si>
   <si>
     <t>Transferrin saturation</t>
+  </si>
+  <si>
+    <t>pg/mL</t>
+  </si>
+  <si>
+    <t>µg/L</t>
+  </si>
+  <si>
+    <t>Family situation</t>
   </si>
 </sst>
 </file>
@@ -1846,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="J135" sqref="J135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,23 +1885,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E10" t="s">
         <v>201</v>
@@ -2109,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,7 +2117,7 @@
         <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
@@ -2161,7 +2158,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
@@ -2178,15 +2175,15 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B33" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -2234,15 +2231,15 @@
         <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B36" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -2253,10 +2250,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B37" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -2276,15 +2273,15 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B39" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
@@ -2295,10 +2292,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B40" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -2314,6 +2311,9 @@
       <c r="B41" t="s">
         <v>235</v>
       </c>
+      <c r="C41" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -2322,6 +2322,9 @@
       <c r="B42" t="s">
         <v>235</v>
       </c>
+      <c r="C42" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -2334,7 +2337,7 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,10 +2353,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B45" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C45" t="s">
         <v>237</v>
@@ -2364,10 +2367,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s">
         <v>237</v>
@@ -2381,21 +2384,21 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C47" t="s">
         <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B48" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
@@ -2406,10 +2409,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C49" t="s">
         <v>238</v>
@@ -2423,10 +2426,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E50" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2443,7 +2446,7 @@
         <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,10 +2465,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>240</v>
@@ -2476,10 +2479,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B54" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>240</v>
@@ -2496,24 +2499,24 @@
         <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s">
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>204</v>
@@ -2521,13 +2524,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B57" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>204</v>
@@ -2538,25 +2541,25 @@
         <v>33</v>
       </c>
       <c r="B58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>204</v>
@@ -2564,13 +2567,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>204</v>
@@ -2581,13 +2584,13 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,13 +2598,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,25 +2612,25 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>204</v>
@@ -2635,13 +2638,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>204</v>
@@ -2652,10 +2655,10 @@
         <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2663,7 +2666,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -2677,10 +2680,10 @@
         <v>38</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>251</v>
+        <v>482</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -2691,13 +2694,13 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,10 +2708,10 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>204</v>
@@ -2727,7 +2730,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -2738,13 +2741,13 @@
         <v>43</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D73" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,16 +2755,16 @@
         <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,13 +2772,13 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,7 +2786,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,7 +2794,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,7 +2802,7 @@
         <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D78" t="s">
         <v>225</v>
@@ -2810,7 +2813,7 @@
         <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2818,10 +2821,10 @@
         <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
         <v>225</v>
@@ -2832,7 +2835,7 @@
         <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
         <v>225</v>
@@ -2843,7 +2846,7 @@
         <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,7 +2854,7 @@
         <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
         <v>204</v>
@@ -2862,13 +2865,13 @@
         <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,7 +2879,7 @@
         <v>55</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2884,7 +2887,7 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2892,13 +2895,13 @@
         <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,10 +2909,10 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E88" s="1"/>
     </row>
@@ -2918,13 +2921,13 @@
         <v>59</v>
       </c>
       <c r="B89" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E89" s="1"/>
     </row>
@@ -2933,7 +2936,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2941,7 +2944,7 @@
         <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,7 +2952,7 @@
         <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2957,13 +2960,13 @@
         <v>63</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,7 +2974,7 @@
         <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2979,10 +2982,10 @@
         <v>65</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,16 +2993,16 @@
         <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3015,7 +3018,7 @@
         <v>68</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3023,10 +3026,10 @@
         <v>69</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3034,7 +3037,7 @@
         <v>70</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +3045,7 @@
         <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,10 +3053,10 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D102" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,10 +3064,10 @@
         <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3072,13 +3075,13 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C104" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3086,7 +3089,7 @@
         <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D105" t="s">
         <v>204</v>
@@ -3097,7 +3100,7 @@
         <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3105,7 +3108,7 @@
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,13 +3116,13 @@
         <v>77</v>
       </c>
       <c r="B108" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D108" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,13 +3130,13 @@
         <v>78</v>
       </c>
       <c r="B109" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E109" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,13 +3144,13 @@
         <v>79</v>
       </c>
       <c r="B110" t="s">
+        <v>294</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="E110" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3155,13 +3158,13 @@
         <v>80</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E111" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3169,13 +3172,13 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E112" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3183,10 +3186,10 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,10 +3197,10 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,13 +3208,13 @@
         <v>84</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E115" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3219,13 +3222,13 @@
         <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E116" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3233,13 +3236,13 @@
         <v>86</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E117" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -3247,10 +3250,10 @@
         <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E118" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="B119" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3266,7 +3269,7 @@
         <v>89</v>
       </c>
       <c r="B120" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3277,7 @@
         <v>107</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,92 +3285,92 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B124" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B125" t="s">
+        <v>436</v>
+      </c>
+      <c r="D125" t="s">
         <v>440</v>
-      </c>
-      <c r="D125" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B126" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B127" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B128" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B129" t="s">
         <v>435</v>
       </c>
-      <c r="B129" t="s">
-        <v>439</v>
-      </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B130" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D130" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3375,13 +3378,13 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E131" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3389,21 +3392,21 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B133" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E133" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,11 +3414,11 @@
         <v>102</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3423,10 +3426,10 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E135" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,11 +3437,11 @@
         <v>104</v>
       </c>
       <c r="B136" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3446,10 +3449,10 @@
         <v>105</v>
       </c>
       <c r="B137" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E137" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3457,10 +3460,10 @@
         <v>106</v>
       </c>
       <c r="B138" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E138" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,7 +3471,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,10 +3479,10 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E140" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,7 +3490,7 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3495,7 +3498,7 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3503,10 +3506,10 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>483</v>
       </c>
       <c r="E143" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,10 +3517,10 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E144" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,10 +3528,10 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3536,7 +3539,7 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,21 +3553,21 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B148" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,7 +3578,7 @@
         <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3583,10 +3586,10 @@
         <v>118</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E150" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,10 +3597,10 @@
         <v>119</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,10 +3608,10 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E152" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,10 +3619,10 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E153" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,10 +3630,10 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E154" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,10 +3641,10 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E155" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,10 +3652,10 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E156" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3660,10 +3663,10 @@
         <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E157" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3671,10 +3674,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E158" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3682,10 +3685,10 @@
         <v>127</v>
       </c>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,10 +3696,10 @@
         <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E160" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3704,10 +3707,10 @@
         <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E161" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3715,10 +3718,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E162" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,21 +3729,21 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E163" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B164" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E164" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,10 +3751,10 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E165" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3759,10 +3762,10 @@
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E166" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3770,10 +3773,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E167" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,21 +3784,21 @@
         <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E168" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B169" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E169" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3803,10 +3806,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E170" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3814,10 +3817,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E171" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3825,10 +3828,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E172" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3836,10 +3839,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E173" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,10 +3850,10 @@
         <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E174" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3858,10 +3861,10 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E175" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3869,10 +3872,10 @@
         <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E176" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3880,10 +3883,10 @@
         <v>143</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E177" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3891,21 +3894,21 @@
         <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E178" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B179" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E179" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,10 +3916,10 @@
         <v>145</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E180" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,7 +3930,7 @@
         <v>199</v>
       </c>
       <c r="E181" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,10 +3938,10 @@
         <v>147</v>
       </c>
       <c r="B182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E182" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -3946,10 +3949,10 @@
         <v>148</v>
       </c>
       <c r="B183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E183" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -3960,7 +3963,7 @@
         <v>199</v>
       </c>
       <c r="E184" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,10 +3971,10 @@
         <v>150</v>
       </c>
       <c r="B185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E185" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -3982,7 +3985,7 @@
         <v>199</v>
       </c>
       <c r="E186" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -3990,10 +3993,10 @@
         <v>152</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E187" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4004,7 +4007,7 @@
         <v>199</v>
       </c>
       <c r="E188" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4012,10 +4015,10 @@
         <v>154</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E189" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4026,7 +4029,7 @@
         <v>199</v>
       </c>
       <c r="E190" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -4034,10 +4037,10 @@
         <v>156</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E191" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4048,7 +4051,7 @@
         <v>199</v>
       </c>
       <c r="E192" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,10 +4059,10 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E193" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,7 +4073,7 @@
         <v>199</v>
       </c>
       <c r="E194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -4078,10 +4081,10 @@
         <v>160</v>
       </c>
       <c r="B195" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E195" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -4092,7 +4095,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -4103,7 +4106,7 @@
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,10 +4114,10 @@
         <v>163</v>
       </c>
       <c r="B198" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E198" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,7 +4128,7 @@
         <v>199</v>
       </c>
       <c r="E199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -4133,10 +4136,10 @@
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E200" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -4147,29 +4150,29 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E202" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C203" t="s">
         <v>199</v>
       </c>
       <c r="E203" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -4177,10 +4180,10 @@
         <v>167</v>
       </c>
       <c r="B204" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E204" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,7 +4194,7 @@
         <v>199</v>
       </c>
       <c r="E205" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,10 +4202,10 @@
         <v>169</v>
       </c>
       <c r="B206" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E206" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,7 +4216,7 @@
         <v>199</v>
       </c>
       <c r="E207" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -4221,10 +4224,10 @@
         <v>171</v>
       </c>
       <c r="B208" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E208" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4235,7 +4238,7 @@
         <v>199</v>
       </c>
       <c r="E209" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,10 +4246,10 @@
         <v>173</v>
       </c>
       <c r="B210" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E210" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,7 +4260,7 @@
         <v>199</v>
       </c>
       <c r="E211" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,10 +4268,10 @@
         <v>175</v>
       </c>
       <c r="B212" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E212" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -4279,7 +4282,7 @@
         <v>199</v>
       </c>
       <c r="E213" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -4287,10 +4290,10 @@
         <v>177</v>
       </c>
       <c r="B214" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E214" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,7 +4304,7 @@
         <v>199</v>
       </c>
       <c r="E215" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,10 +4312,10 @@
         <v>179</v>
       </c>
       <c r="B216" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E216" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -4323,7 +4326,7 @@
         <v>199</v>
       </c>
       <c r="E217" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -4331,10 +4334,10 @@
         <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E218" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -4345,7 +4348,7 @@
         <v>199</v>
       </c>
       <c r="E219" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,10 +4356,10 @@
         <v>183</v>
       </c>
       <c r="B220" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E220" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -4364,10 +4367,10 @@
         <v>184</v>
       </c>
       <c r="B221" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E221" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,10 +4378,10 @@
         <v>185</v>
       </c>
       <c r="B222" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E222" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,7 +4389,7 @@
         <v>186</v>
       </c>
       <c r="B223" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -4394,7 +4397,7 @@
         <v>187</v>
       </c>
       <c r="B224" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4402,7 +4405,7 @@
         <v>188</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/variabledescription/meta_variables.xlsx
+++ b/variabledescription/meta_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\STATISTIK\Projects\20210525_shfdb4\dm\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A90B7B1-35DA-41BB-BA4F-8CE531E0E9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2457C06C-F752-43E2-8931-D97EC0361683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="4320" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="489">
   <si>
     <t>lopnr</t>
   </si>
@@ -964,9 +964,6 @@
     <t>Follow-up referral speciality</t>
   </si>
   <si>
-    <t>QoL EQ-5D</t>
-  </si>
-  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -1228,12 +1225,6 @@
     <t>Renal failure</t>
   </si>
   <si>
-    <t>Renal failure hospitalization</t>
-  </si>
-  <si>
-    <t>sos_out_hosprenal</t>
-  </si>
-  <si>
     <t>sos_com_respiratory</t>
   </si>
   <si>
@@ -1345,9 +1336,6 @@
     <t>2008-02-01-</t>
   </si>
   <si>
-    <t>sos_outtime_hosprenal</t>
-  </si>
-  <si>
     <t>shf_bpdia_dis</t>
   </si>
   <si>
@@ -1472,6 +1460,33 @@
   </si>
   <si>
     <t>Family situation</t>
+  </si>
+  <si>
+    <t>sos_com_charlsonciage</t>
+  </si>
+  <si>
+    <t>Charlson Comorbidity Index age-adjusted</t>
+  </si>
+  <si>
+    <t>EQ5D-vas</t>
+  </si>
+  <si>
+    <t>sos_out_hosprenalacute</t>
+  </si>
+  <si>
+    <t>sos_outtime_hosprenalacute</t>
+  </si>
+  <si>
+    <t>Acute renal failure hospitalization</t>
+  </si>
+  <si>
+    <t>sos_out_renalendstage</t>
+  </si>
+  <si>
+    <t>sos_outtime_renalendstage</t>
+  </si>
+  <si>
+    <t>End-stage renal failure</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1543,6 +1558,10 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1841,10 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="J135" sqref="J135"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,23 +1904,23 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1947,7 +1966,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E10" t="s">
         <v>201</v>
@@ -2106,7 +2125,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,7 +2136,7 @@
         <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>222</v>
@@ -2158,7 +2177,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>204</v>
@@ -2175,15 +2194,15 @@
         <v>228</v>
       </c>
       <c r="E31" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C32" t="s">
         <v>228</v>
@@ -2194,10 +2213,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C33" t="s">
         <v>228</v>
@@ -2231,15 +2250,15 @@
         <v>233</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C36" t="s">
         <v>233</v>
@@ -2250,10 +2269,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s">
         <v>233</v>
@@ -2273,15 +2292,15 @@
         <v>233</v>
       </c>
       <c r="E38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C39" t="s">
         <v>233</v>
@@ -2292,10 +2311,10 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C40" t="s">
         <v>233</v>
@@ -2337,7 +2356,7 @@
         <v>237</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2353,10 +2372,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B45" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
         <v>237</v>
@@ -2367,10 +2386,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B46" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C46" t="s">
         <v>237</v>
@@ -2384,21 +2403,21 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C47" t="s">
         <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C48" t="s">
         <v>238</v>
@@ -2409,10 +2428,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B49" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
         <v>238</v>
@@ -2426,10 +2445,10 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E50" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,7 +2465,7 @@
         <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2465,10 +2484,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>240</v>
@@ -2479,10 +2498,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>240</v>
@@ -2505,15 +2524,15 @@
         <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C56" t="s">
         <v>240</v>
@@ -2524,10 +2543,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C57" t="s">
         <v>240</v>
@@ -2548,15 +2567,15 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>244</v>
@@ -2567,10 +2586,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B60" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>244</v>
@@ -2584,13 +2603,13 @@
         <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C61" t="s">
         <v>245</v>
       </c>
       <c r="E61" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,13 +2617,13 @@
         <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C62" t="s">
         <v>245</v>
       </c>
       <c r="E62" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2615,22 +2634,22 @@
         <v>246</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B64" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>204</v>
@@ -2638,13 +2657,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>204</v>
@@ -2658,7 +2677,7 @@
         <v>247</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,7 +2685,7 @@
         <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C67" t="s">
         <v>203</v>
@@ -2683,7 +2702,7 @@
         <v>248</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
         <v>204</v>
@@ -2719,7 +2738,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>204</v>
@@ -2730,7 +2749,7 @@
         <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
@@ -2772,7 +2791,7 @@
         <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D75" t="s">
         <v>268</v>
@@ -2786,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2815,6 +2834,9 @@
       <c r="B79" t="s">
         <v>256</v>
       </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2856,9 +2878,6 @@
       <c r="B83" t="s">
         <v>261</v>
       </c>
-      <c r="D83" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -3053,10 +3072,10 @@
         <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D102" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3064,10 +3083,10 @@
         <v>73</v>
       </c>
       <c r="B103" t="s">
+        <v>391</v>
+      </c>
+      <c r="D103" t="s">
         <v>392</v>
-      </c>
-      <c r="D103" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,13 +3094,13 @@
         <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C104" t="s">
         <v>258</v>
       </c>
       <c r="D104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3089,7 +3108,7 @@
         <v>75</v>
       </c>
       <c r="B105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D105" t="s">
         <v>204</v>
@@ -3285,92 +3304,92 @@
         <v>90</v>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B123" t="s">
-        <v>314</v>
+        <v>482</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D124" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B125" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D125" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B126" t="s">
+        <v>434</v>
+      </c>
+      <c r="D126" t="s">
         <v>437</v>
-      </c>
-      <c r="D126" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B127" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D127" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B128" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D128" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B129" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D129" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D130" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3378,13 +3397,13 @@
         <v>91</v>
       </c>
       <c r="B131" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" t="s">
         <v>315</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>316</v>
-      </c>
-      <c r="E131" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3392,21 +3411,21 @@
         <v>100</v>
       </c>
       <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" t="s">
         <v>315</v>
-      </c>
-      <c r="C132" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B133" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E133" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3418,7 +3437,7 @@
       </c>
       <c r="C134" s="3"/>
       <c r="E134" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3426,10 +3445,10 @@
         <v>103</v>
       </c>
       <c r="B135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3441,7 +3460,7 @@
       </c>
       <c r="C136" s="3"/>
       <c r="E136" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3452,7 +3471,7 @@
         <v>294</v>
       </c>
       <c r="E137" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3463,7 +3482,7 @@
         <v>304</v>
       </c>
       <c r="E138" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,7 +3490,7 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,10 +3498,10 @@
         <v>109</v>
       </c>
       <c r="B140" t="s">
+        <v>318</v>
+      </c>
+      <c r="E140" t="s">
         <v>319</v>
-      </c>
-      <c r="E140" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,7 +3509,7 @@
         <v>110</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3498,7 +3517,7 @@
         <v>111</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3506,10 +3525,10 @@
         <v>112</v>
       </c>
       <c r="B143" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E143" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3517,10 +3536,10 @@
         <v>113</v>
       </c>
       <c r="B144" t="s">
+        <v>323</v>
+      </c>
+      <c r="E144" t="s">
         <v>324</v>
-      </c>
-      <c r="E144" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3528,10 +3547,10 @@
         <v>114</v>
       </c>
       <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
         <v>326</v>
-      </c>
-      <c r="C145" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3539,7 +3558,7 @@
         <v>115</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -3553,21 +3572,21 @@
         <v>199</v>
       </c>
       <c r="E147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B148" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C148" t="s">
         <v>199</v>
       </c>
       <c r="E148" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -3578,7 +3597,7 @@
         <v>215</v>
       </c>
       <c r="E149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -3589,7 +3608,7 @@
         <v>299</v>
       </c>
       <c r="E150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -3600,7 +3619,7 @@
         <v>294</v>
       </c>
       <c r="E151" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,10 +3627,10 @@
         <v>120</v>
       </c>
       <c r="B152" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E152" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,10 +3638,10 @@
         <v>121</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E153" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -3630,10 +3649,10 @@
         <v>122</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E154" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,10 +3660,10 @@
         <v>123</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E155" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,10 +3671,10 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,7 +3685,7 @@
         <v>305</v>
       </c>
       <c r="E157" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,10 +3693,10 @@
         <v>126</v>
       </c>
       <c r="B158" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -3688,7 +3707,7 @@
         <v>301</v>
       </c>
       <c r="E159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,10 +3715,10 @@
         <v>128</v>
       </c>
       <c r="B160" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E160" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,10 +3726,10 @@
         <v>129</v>
       </c>
       <c r="B161" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E161" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -3718,10 +3737,10 @@
         <v>130</v>
       </c>
       <c r="B162" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E162" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,21 +3748,21 @@
         <v>131</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E163" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>399</v>
+      </c>
+      <c r="B164" t="s">
         <v>400</v>
       </c>
-      <c r="B164" t="s">
-        <v>401</v>
-      </c>
       <c r="E164" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -3751,10 +3770,10 @@
         <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E165" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -3762,10 +3781,10 @@
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E166" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -3773,10 +3792,10 @@
         <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E167" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -3784,21 +3803,21 @@
         <v>135</v>
       </c>
       <c r="B168" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E168" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B169" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E169" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -3806,10 +3825,10 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E170" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -3817,10 +3836,10 @@
         <v>137</v>
       </c>
       <c r="B171" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E171" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -3828,10 +3847,10 @@
         <v>138</v>
       </c>
       <c r="B172" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E172" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -3839,10 +3858,10 @@
         <v>139</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E173" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -3850,10 +3869,10 @@
         <v>140</v>
       </c>
       <c r="B174" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,10 +3880,10 @@
         <v>141</v>
       </c>
       <c r="B175" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E175" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -3872,10 +3891,10 @@
         <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -3883,10 +3902,10 @@
         <v>143</v>
       </c>
       <c r="B177" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E177" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -3894,518 +3913,551 @@
         <v>144</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B179" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E179" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>145</v>
+        <v>480</v>
       </c>
       <c r="B180" t="s">
-        <v>351</v>
+        <v>481</v>
       </c>
       <c r="E180" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>146</v>
-      </c>
-      <c r="C181" t="s">
-        <v>199</v>
+        <v>145</v>
+      </c>
+      <c r="B181" t="s">
+        <v>350</v>
       </c>
       <c r="E181" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>147</v>
-      </c>
-      <c r="B182" t="s">
-        <v>352</v>
+        <v>146</v>
+      </c>
+      <c r="C182" t="s">
+        <v>199</v>
       </c>
       <c r="E182" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>149</v>
-      </c>
-      <c r="C184" t="s">
-        <v>199</v>
+        <v>148</v>
+      </c>
+      <c r="B184" t="s">
+        <v>352</v>
       </c>
       <c r="E184" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>150</v>
-      </c>
-      <c r="B185" t="s">
-        <v>354</v>
+        <v>149</v>
+      </c>
+      <c r="C185" t="s">
+        <v>199</v>
       </c>
       <c r="E185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>151</v>
-      </c>
-      <c r="C186" t="s">
-        <v>199</v>
+        <v>150</v>
+      </c>
+      <c r="B186" t="s">
+        <v>353</v>
       </c>
       <c r="E186" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>152</v>
-      </c>
-      <c r="B187" t="s">
-        <v>355</v>
+        <v>151</v>
+      </c>
+      <c r="C187" t="s">
+        <v>199</v>
       </c>
       <c r="E187" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>153</v>
-      </c>
-      <c r="C188" t="s">
-        <v>199</v>
+        <v>152</v>
+      </c>
+      <c r="B188" t="s">
+        <v>354</v>
       </c>
       <c r="E188" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>154</v>
-      </c>
-      <c r="B189" t="s">
-        <v>356</v>
+        <v>153</v>
+      </c>
+      <c r="C189" t="s">
+        <v>199</v>
       </c>
       <c r="E189" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>155</v>
-      </c>
-      <c r="C190" t="s">
-        <v>199</v>
+        <v>154</v>
+      </c>
+      <c r="B190" t="s">
+        <v>355</v>
       </c>
       <c r="E190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" t="s">
-        <v>357</v>
+        <v>155</v>
+      </c>
+      <c r="C191" t="s">
+        <v>199</v>
       </c>
       <c r="E191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>157</v>
-      </c>
-      <c r="C192" t="s">
-        <v>199</v>
+        <v>156</v>
+      </c>
+      <c r="B192" t="s">
+        <v>356</v>
       </c>
       <c r="E192" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>158</v>
-      </c>
-      <c r="B193" t="s">
-        <v>358</v>
+        <v>157</v>
+      </c>
+      <c r="C193" t="s">
+        <v>199</v>
       </c>
       <c r="E193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>159</v>
-      </c>
-      <c r="C194" t="s">
-        <v>199</v>
+        <v>158</v>
+      </c>
+      <c r="B194" t="s">
+        <v>357</v>
       </c>
       <c r="E194" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>160</v>
-      </c>
-      <c r="B195" t="s">
-        <v>359</v>
+        <v>159</v>
+      </c>
+      <c r="C195" t="s">
+        <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>161</v>
-      </c>
-      <c r="C196" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="B196" t="s">
+        <v>358</v>
       </c>
       <c r="E196" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C197" t="s">
         <v>199</v>
       </c>
       <c r="E197" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>163</v>
-      </c>
-      <c r="B198" t="s">
-        <v>360</v>
+        <v>162</v>
+      </c>
+      <c r="C198" t="s">
+        <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>164</v>
-      </c>
-      <c r="C199" t="s">
-        <v>199</v>
+        <v>163</v>
+      </c>
+      <c r="B199" t="s">
+        <v>359</v>
       </c>
       <c r="E199" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>165</v>
-      </c>
-      <c r="B200" t="s">
-        <v>361</v>
+        <v>164</v>
+      </c>
+      <c r="C200" t="s">
+        <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>166</v>
-      </c>
-      <c r="C201" t="s">
-        <v>199</v>
+        <v>165</v>
+      </c>
+      <c r="B201" t="s">
+        <v>360</v>
       </c>
       <c r="E201" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>403</v>
-      </c>
-      <c r="B202" t="s">
-        <v>402</v>
+        <v>166</v>
+      </c>
+      <c r="C202" t="s">
+        <v>199</v>
       </c>
       <c r="E202" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>441</v>
-      </c>
-      <c r="C203" t="s">
+        <v>483</v>
+      </c>
+      <c r="B203" t="s">
+        <v>485</v>
+      </c>
+      <c r="E203" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C204" t="s">
         <v>199</v>
       </c>
-      <c r="E203" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>167</v>
-      </c>
-      <c r="B204" t="s">
-        <v>362</v>
-      </c>
       <c r="E204" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>168</v>
-      </c>
-      <c r="C205" t="s">
+      <c r="A205" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B205" t="s">
+        <v>488</v>
+      </c>
+      <c r="E205" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C206" t="s">
         <v>199</v>
       </c>
-      <c r="E205" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>169</v>
-      </c>
-      <c r="B206" t="s">
-        <v>363</v>
-      </c>
       <c r="E206" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>170</v>
-      </c>
-      <c r="C207" t="s">
-        <v>199</v>
+        <v>167</v>
+      </c>
+      <c r="B207" t="s">
+        <v>361</v>
       </c>
       <c r="E207" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>171</v>
-      </c>
-      <c r="B208" t="s">
-        <v>364</v>
+        <v>168</v>
+      </c>
+      <c r="C208" t="s">
+        <v>199</v>
       </c>
       <c r="E208" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>172</v>
-      </c>
-      <c r="C209" t="s">
-        <v>199</v>
+        <v>169</v>
+      </c>
+      <c r="B209" t="s">
+        <v>362</v>
       </c>
       <c r="E209" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>173</v>
-      </c>
-      <c r="B210" t="s">
-        <v>365</v>
+        <v>170</v>
+      </c>
+      <c r="C210" t="s">
+        <v>199</v>
       </c>
       <c r="E210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>174</v>
-      </c>
-      <c r="C211" t="s">
-        <v>199</v>
+        <v>171</v>
+      </c>
+      <c r="B211" t="s">
+        <v>363</v>
       </c>
       <c r="E211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>175</v>
-      </c>
-      <c r="B212" t="s">
-        <v>366</v>
+        <v>172</v>
+      </c>
+      <c r="C212" t="s">
+        <v>199</v>
       </c>
       <c r="E212" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>176</v>
-      </c>
-      <c r="C213" t="s">
-        <v>199</v>
+        <v>173</v>
+      </c>
+      <c r="B213" t="s">
+        <v>364</v>
       </c>
       <c r="E213" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>177</v>
-      </c>
-      <c r="B214" t="s">
-        <v>367</v>
+        <v>174</v>
+      </c>
+      <c r="C214" t="s">
+        <v>199</v>
       </c>
       <c r="E214" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>178</v>
-      </c>
-      <c r="C215" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B215" t="s">
+        <v>365</v>
       </c>
       <c r="E215" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>179</v>
-      </c>
-      <c r="B216" t="s">
-        <v>368</v>
+        <v>176</v>
+      </c>
+      <c r="C216" t="s">
+        <v>199</v>
       </c>
       <c r="E216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>180</v>
-      </c>
-      <c r="C217" t="s">
-        <v>199</v>
+        <v>177</v>
+      </c>
+      <c r="B217" t="s">
+        <v>366</v>
       </c>
       <c r="E217" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>181</v>
-      </c>
-      <c r="B218" t="s">
-        <v>369</v>
+        <v>178</v>
+      </c>
+      <c r="C218" t="s">
+        <v>199</v>
       </c>
       <c r="E218" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>182</v>
-      </c>
-      <c r="C219" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="B219" t="s">
+        <v>367</v>
       </c>
       <c r="E219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>183</v>
-      </c>
-      <c r="B220" t="s">
-        <v>370</v>
+        <v>180</v>
+      </c>
+      <c r="C220" t="s">
+        <v>199</v>
       </c>
       <c r="E220" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B221" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E221" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>185</v>
-      </c>
-      <c r="B222" t="s">
-        <v>372</v>
+        <v>182</v>
+      </c>
+      <c r="C222" t="s">
+        <v>199</v>
       </c>
       <c r="E222" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B223" t="s">
-        <v>395</v>
+        <v>369</v>
+      </c>
+      <c r="E223" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>184</v>
+      </c>
+      <c r="B224" t="s">
+        <v>370</v>
+      </c>
+      <c r="E224" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>185</v>
+      </c>
+      <c r="B225" t="s">
+        <v>371</v>
+      </c>
+      <c r="E225" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>186</v>
+      </c>
+      <c r="B226" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>187</v>
       </c>
-      <c r="B224" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B227" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>188</v>
       </c>
-      <c r="B225" t="s">
-        <v>373</v>
+      <c r="B228" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
